--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fzd8</t>
+  </si>
+  <si>
+    <t>Ckap4</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Fzd8</t>
-  </si>
-  <si>
-    <t>Ckap4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="H2">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="I2">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="J2">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.426599333333333</v>
+        <v>16.720195</v>
       </c>
       <c r="N2">
-        <v>16.279798</v>
+        <v>50.160585</v>
       </c>
       <c r="O2">
-        <v>0.0320709464471805</v>
+        <v>0.08300947576205361</v>
       </c>
       <c r="P2">
-        <v>0.0320709464471805</v>
+        <v>0.0830094757620536</v>
       </c>
       <c r="Q2">
-        <v>13.11295763198489</v>
+        <v>36.07392103367</v>
       </c>
       <c r="R2">
-        <v>118.016618687864</v>
+        <v>324.66528930303</v>
       </c>
       <c r="S2">
-        <v>0.008752530834558831</v>
+        <v>0.02946544210176615</v>
       </c>
       <c r="T2">
-        <v>0.008752530834558833</v>
+        <v>0.02946544210176615</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="H3">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="I3">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="J3">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>344.735191</v>
       </c>
       <c r="O3">
-        <v>0.6791229135041811</v>
+        <v>0.5704934956727761</v>
       </c>
       <c r="P3">
-        <v>0.6791229135041811</v>
+        <v>0.5704934956727761</v>
       </c>
       <c r="Q3">
-        <v>277.6753098433542</v>
+        <v>247.9227476645486</v>
       </c>
       <c r="R3">
-        <v>2499.077788590188</v>
+        <v>2231.304728980937</v>
       </c>
       <c r="S3">
-        <v>0.1853404685356064</v>
+        <v>0.2025051105534713</v>
       </c>
       <c r="T3">
-        <v>0.1853404685356065</v>
+        <v>0.2025051105534713</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="H4">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="I4">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="J4">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.88967966666667</v>
+        <v>20.946141</v>
       </c>
       <c r="N4">
-        <v>41.669039</v>
+        <v>62.83842300000001</v>
       </c>
       <c r="O4">
-        <v>0.08208735257491988</v>
+        <v>0.103989707276025</v>
       </c>
       <c r="P4">
-        <v>0.08208735257491988</v>
+        <v>0.103989707276025</v>
       </c>
       <c r="Q4">
-        <v>33.56333677927244</v>
+        <v>45.191424884346</v>
       </c>
       <c r="R4">
-        <v>302.070031013452</v>
+        <v>406.722823959114</v>
       </c>
       <c r="S4">
-        <v>0.02240258439901616</v>
+        <v>0.03691268582040641</v>
       </c>
       <c r="T4">
-        <v>0.02240258439901616</v>
+        <v>0.03691268582040641</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="H5">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="I5">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="J5">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.12846066666667</v>
+        <v>12.208814</v>
       </c>
       <c r="N5">
-        <v>36.385382</v>
+        <v>36.626442</v>
       </c>
       <c r="O5">
-        <v>0.07167863124482289</v>
+        <v>0.06061216689257635</v>
       </c>
       <c r="P5">
-        <v>0.07167863124482289</v>
+        <v>0.06061216689257635</v>
       </c>
       <c r="Q5">
-        <v>29.30748726670845</v>
+        <v>26.34058945788399</v>
       </c>
       <c r="R5">
-        <v>263.767385400376</v>
+        <v>237.0653051209559</v>
       </c>
       <c r="S5">
-        <v>0.01956192440976245</v>
+        <v>0.02151518580065795</v>
       </c>
       <c r="T5">
-        <v>0.01956192440976245</v>
+        <v>0.02151518580065794</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="H6">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="I6">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="J6">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.96891333333333</v>
+        <v>14.06185033333333</v>
       </c>
       <c r="N6">
-        <v>41.90674000000001</v>
+        <v>42.185551</v>
       </c>
       <c r="O6">
-        <v>0.08255561981272232</v>
+        <v>0.06981179492311297</v>
       </c>
       <c r="P6">
-        <v>0.0825556198127223</v>
+        <v>0.06981179492311297</v>
       </c>
       <c r="Q6">
-        <v>33.75479880736889</v>
+        <v>30.33852646526866</v>
       </c>
       <c r="R6">
-        <v>303.79318926632</v>
+        <v>273.046738187418</v>
       </c>
       <c r="S6">
-        <v>0.02253037992399169</v>
+        <v>0.0247807299400835</v>
       </c>
       <c r="T6">
-        <v>0.02253037992399169</v>
+        <v>0.0247807299400835</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="H7">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="I7">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="J7">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.880702999999999</v>
+        <v>22.576406</v>
       </c>
       <c r="N7">
-        <v>26.642109</v>
+        <v>67.729218</v>
       </c>
       <c r="O7">
-        <v>0.05248453641617331</v>
+        <v>0.112083359473456</v>
       </c>
       <c r="P7">
-        <v>0.05248453641617332</v>
+        <v>0.112083359473456</v>
       </c>
       <c r="Q7">
-        <v>21.45953202513466</v>
+        <v>48.708731403436</v>
       </c>
       <c r="R7">
-        <v>193.135788226212</v>
+        <v>438.378582630924</v>
       </c>
       <c r="S7">
-        <v>0.01432363476009821</v>
+        <v>0.03978564746756637</v>
       </c>
       <c r="T7">
-        <v>0.01432363476009822</v>
+        <v>0.03978564746756637</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>8.740964</v>
       </c>
       <c r="I8">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="J8">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.426599333333333</v>
+        <v>16.720195</v>
       </c>
       <c r="N8">
-        <v>16.279798</v>
+        <v>50.160585</v>
       </c>
       <c r="O8">
-        <v>0.0320709464471805</v>
+        <v>0.08300947576205361</v>
       </c>
       <c r="P8">
-        <v>0.0320709464471805</v>
+        <v>0.0830094757620536</v>
       </c>
       <c r="Q8">
-        <v>15.81123647169689</v>
+        <v>48.71687418932667</v>
       </c>
       <c r="R8">
-        <v>142.301128245272</v>
+        <v>438.45186770394</v>
       </c>
       <c r="S8">
-        <v>0.01055355615681041</v>
+        <v>0.03979229855453818</v>
       </c>
       <c r="T8">
-        <v>0.01055355615681042</v>
+        <v>0.03979229855453816</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>8.740964</v>
       </c>
       <c r="I9">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="J9">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>344.735191</v>
       </c>
       <c r="O9">
-        <v>0.6791229135041811</v>
+        <v>0.5704934956727761</v>
       </c>
       <c r="P9">
-        <v>0.6791229135041811</v>
+        <v>0.5704934956727761</v>
       </c>
       <c r="Q9">
         <v>334.8130993404582</v>
@@ -1013,10 +1013,10 @@
         <v>3013.317894064124</v>
       </c>
       <c r="S9">
-        <v>0.2234783378422302</v>
+        <v>0.2734777842508762</v>
       </c>
       <c r="T9">
-        <v>0.2234783378422303</v>
+        <v>0.2734777842508762</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>8.740964</v>
       </c>
       <c r="I10">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="J10">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.88967966666667</v>
+        <v>20.946141</v>
       </c>
       <c r="N10">
-        <v>41.669039</v>
+        <v>62.83842300000001</v>
       </c>
       <c r="O10">
-        <v>0.08208735257491988</v>
+        <v>0.103989707276025</v>
       </c>
       <c r="P10">
-        <v>0.08208735257491988</v>
+        <v>0.103989707276025</v>
       </c>
       <c r="Q10">
-        <v>40.46972997928844</v>
+        <v>61.029821473308</v>
       </c>
       <c r="R10">
-        <v>364.227569813596</v>
+        <v>549.2683932597721</v>
       </c>
       <c r="S10">
-        <v>0.02701240783742053</v>
+        <v>0.04984960380171719</v>
       </c>
       <c r="T10">
-        <v>0.02701240783742054</v>
+        <v>0.04984960380171718</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>8.740964</v>
       </c>
       <c r="I11">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="J11">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.12846066666667</v>
+        <v>12.208814</v>
       </c>
       <c r="N11">
-        <v>36.385382</v>
+        <v>36.626442</v>
       </c>
       <c r="O11">
-        <v>0.07167863124482289</v>
+        <v>0.06061216689257635</v>
       </c>
       <c r="P11">
-        <v>0.07167863124482289</v>
+        <v>0.06061216689257635</v>
       </c>
       <c r="Q11">
-        <v>35.33814602091645</v>
+        <v>35.57226788556532</v>
       </c>
       <c r="R11">
-        <v>318.043314188248</v>
+        <v>320.150410970088</v>
       </c>
       <c r="S11">
-        <v>0.02358721970776288</v>
+        <v>0.0290556881474663</v>
       </c>
       <c r="T11">
-        <v>0.02358721970776289</v>
+        <v>0.0290556881474663</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>8.740964</v>
       </c>
       <c r="I12">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="J12">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.96891333333333</v>
+        <v>14.06185033333333</v>
       </c>
       <c r="N12">
-        <v>41.90674000000001</v>
+        <v>42.185551</v>
       </c>
       <c r="O12">
-        <v>0.08255561981272232</v>
+        <v>0.06981179492311297</v>
       </c>
       <c r="P12">
-        <v>0.0825556198127223</v>
+        <v>0.06981179492311297</v>
       </c>
       <c r="Q12">
-        <v>40.70058952192889</v>
+        <v>40.97137584568489</v>
       </c>
       <c r="R12">
-        <v>366.30530569736</v>
+        <v>368.742382611164</v>
       </c>
       <c r="S12">
-        <v>0.02716650009655238</v>
+        <v>0.03346571895203568</v>
       </c>
       <c r="T12">
-        <v>0.02716650009655238</v>
+        <v>0.03346571895203567</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>8.740964</v>
       </c>
       <c r="I13">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="J13">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.880702999999999</v>
+        <v>22.576406</v>
       </c>
       <c r="N13">
-        <v>26.642109</v>
+        <v>67.729218</v>
       </c>
       <c r="O13">
-        <v>0.05248453641617331</v>
+        <v>0.112083359473456</v>
       </c>
       <c r="P13">
-        <v>0.05248453641617332</v>
+        <v>0.112083359473456</v>
       </c>
       <c r="Q13">
-        <v>25.87530173923066</v>
+        <v>65.77985069846133</v>
       </c>
       <c r="R13">
-        <v>232.877715653076</v>
+        <v>592.018656286152</v>
       </c>
       <c r="S13">
-        <v>0.01727103699120616</v>
+        <v>0.05372946235617868</v>
       </c>
       <c r="T13">
-        <v>0.01727103699120617</v>
+        <v>0.05372946235617867</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="H14">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="I14">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="J14">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.426599333333333</v>
+        <v>16.720195</v>
       </c>
       <c r="N14">
-        <v>16.279798</v>
+        <v>50.160585</v>
       </c>
       <c r="O14">
-        <v>0.0320709464471805</v>
+        <v>0.08300947576205361</v>
       </c>
       <c r="P14">
-        <v>0.0320709464471805</v>
+        <v>0.0830094757620536</v>
       </c>
       <c r="Q14">
-        <v>0.1585507615884444</v>
+        <v>0.31744962227</v>
       </c>
       <c r="R14">
-        <v>1.426956854296</v>
+        <v>2.857046600429999</v>
       </c>
       <c r="S14">
-        <v>0.0001058281791638481</v>
+        <v>0.0002592951693965774</v>
       </c>
       <c r="T14">
-        <v>0.0001058281791638481</v>
+        <v>0.0002592951693965773</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="H15">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="I15">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="J15">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>344.735191</v>
       </c>
       <c r="O15">
-        <v>0.6791229135041811</v>
+        <v>0.5704934956727761</v>
       </c>
       <c r="P15">
-        <v>0.6791229135041811</v>
+        <v>0.5704934956727761</v>
       </c>
       <c r="Q15">
-        <v>3.357414329059111</v>
+        <v>2.181714112108666</v>
       </c>
       <c r="R15">
-        <v>30.216728961532</v>
+        <v>19.635427008978</v>
       </c>
       <c r="S15">
-        <v>0.002240979744173202</v>
+        <v>0.001782040017023455</v>
       </c>
       <c r="T15">
-        <v>0.002240979744173202</v>
+        <v>0.001782040017023455</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="H16">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="I16">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="J16">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.88967966666667</v>
+        <v>20.946141</v>
       </c>
       <c r="N16">
-        <v>41.669039</v>
+        <v>62.83842300000001</v>
       </c>
       <c r="O16">
-        <v>0.08208735257491988</v>
+        <v>0.103989707276025</v>
       </c>
       <c r="P16">
-        <v>0.08208735257491988</v>
+        <v>0.103989707276025</v>
       </c>
       <c r="Q16">
-        <v>0.4058194007142222</v>
+        <v>0.397683433026</v>
       </c>
       <c r="R16">
-        <v>3.652374606428</v>
+        <v>3.579150897234</v>
       </c>
       <c r="S16">
-        <v>0.0002708730492158056</v>
+        <v>0.0003248307318664404</v>
       </c>
       <c r="T16">
-        <v>0.0002708730492158056</v>
+        <v>0.0003248307318664402</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="H17">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="I17">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="J17">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.12846066666667</v>
+        <v>12.208814</v>
       </c>
       <c r="N17">
-        <v>36.385382</v>
+        <v>36.626442</v>
       </c>
       <c r="O17">
-        <v>0.07167863124482289</v>
+        <v>0.06061216689257635</v>
       </c>
       <c r="P17">
-        <v>0.07167863124482289</v>
+        <v>0.06061216689257635</v>
       </c>
       <c r="Q17">
-        <v>0.3543612781182223</v>
+        <v>0.231796542604</v>
       </c>
       <c r="R17">
-        <v>3.189251503064</v>
+        <v>2.086168883436</v>
       </c>
       <c r="S17">
-        <v>0.0002365261980057157</v>
+        <v>0.0001893331085110733</v>
       </c>
       <c r="T17">
-        <v>0.0002365261980057157</v>
+        <v>0.0001893331085110733</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="H18">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="I18">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="J18">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>13.96891333333333</v>
+        <v>14.06185033333333</v>
       </c>
       <c r="N18">
-        <v>41.90674000000001</v>
+        <v>42.185551</v>
       </c>
       <c r="O18">
-        <v>0.08255561981272232</v>
+        <v>0.06981179492311297</v>
       </c>
       <c r="P18">
-        <v>0.0825556198127223</v>
+        <v>0.06981179492311297</v>
       </c>
       <c r="Q18">
-        <v>0.4081343971644445</v>
+        <v>0.2669782904286667</v>
       </c>
       <c r="R18">
-        <v>3.673209574480001</v>
+        <v>2.402804613858</v>
       </c>
       <c r="S18">
-        <v>0.0002724182443106973</v>
+        <v>0.0002180698170213317</v>
       </c>
       <c r="T18">
-        <v>0.0002724182443106973</v>
+        <v>0.0002180698170213317</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="H19">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="I19">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="J19">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.880702999999999</v>
+        <v>22.576406</v>
       </c>
       <c r="N19">
-        <v>26.642109</v>
+        <v>67.729218</v>
       </c>
       <c r="O19">
-        <v>0.05248453641617331</v>
+        <v>0.112083359473456</v>
       </c>
       <c r="P19">
-        <v>0.05248453641617332</v>
+        <v>0.112083359473456</v>
       </c>
       <c r="Q19">
-        <v>0.2594704597853333</v>
+        <v>0.428635644316</v>
       </c>
       <c r="R19">
-        <v>2.335234138068</v>
+        <v>3.857720798844</v>
       </c>
       <c r="S19">
-        <v>0.0001731892425541625</v>
+        <v>0.0003501127240523156</v>
       </c>
       <c r="T19">
-        <v>0.0001731892425541625</v>
+        <v>0.0003501127240523155</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="H20">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="I20">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="J20">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.426599333333333</v>
+        <v>16.720195</v>
       </c>
       <c r="N20">
-        <v>16.279798</v>
+        <v>50.160585</v>
       </c>
       <c r="O20">
-        <v>0.0320709464471805</v>
+        <v>0.08300947576205361</v>
       </c>
       <c r="P20">
-        <v>0.0320709464471805</v>
+        <v>0.0830094757620536</v>
       </c>
       <c r="Q20">
-        <v>18.81088512311844</v>
+        <v>16.46766432151667</v>
       </c>
       <c r="R20">
-        <v>169.297966108066</v>
+        <v>148.20897889365</v>
       </c>
       <c r="S20">
-        <v>0.01255573736193918</v>
+        <v>0.01345090845999462</v>
       </c>
       <c r="T20">
-        <v>0.01255573736193918</v>
+        <v>0.01345090845999461</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="H21">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="I21">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="J21">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>344.735191</v>
       </c>
       <c r="O21">
-        <v>0.6791229135041811</v>
+        <v>0.5704934956727761</v>
       </c>
       <c r="P21">
-        <v>0.6791229135041811</v>
+        <v>0.5704934956727761</v>
       </c>
       <c r="Q21">
-        <v>398.3325883894441</v>
+        <v>113.1761801661989</v>
       </c>
       <c r="R21">
-        <v>3584.993295504997</v>
+        <v>1018.58562149579</v>
       </c>
       <c r="S21">
-        <v>0.2658758123174464</v>
+        <v>0.09244313033988259</v>
       </c>
       <c r="T21">
-        <v>0.2658758123174464</v>
+        <v>0.09244313033988258</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="H22">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="I22">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="J22">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.88967966666667</v>
+        <v>20.946141</v>
       </c>
       <c r="N22">
-        <v>41.669039</v>
+        <v>62.83842300000001</v>
       </c>
       <c r="O22">
-        <v>0.08208735257491988</v>
+        <v>0.103989707276025</v>
       </c>
       <c r="P22">
-        <v>0.08208735257491988</v>
+        <v>0.103989707276025</v>
       </c>
       <c r="Q22">
-        <v>48.14749579937922</v>
+        <v>20.62978445043</v>
       </c>
       <c r="R22">
-        <v>433.327462194413</v>
+        <v>185.66806005387</v>
       </c>
       <c r="S22">
-        <v>0.03213710082940838</v>
+        <v>0.01685055857190303</v>
       </c>
       <c r="T22">
-        <v>0.03213710082940838</v>
+        <v>0.01685055857190303</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="H23">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="I23">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="J23">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>12.12846066666667</v>
+        <v>12.208814</v>
       </c>
       <c r="N23">
-        <v>36.385382</v>
+        <v>36.626442</v>
       </c>
       <c r="O23">
-        <v>0.07167863124482289</v>
+        <v>0.06061216689257635</v>
       </c>
       <c r="P23">
-        <v>0.07167863124482289</v>
+        <v>0.06061216689257635</v>
       </c>
       <c r="Q23">
-        <v>42.04236692388822</v>
+        <v>12.02442021255333</v>
       </c>
       <c r="R23">
-        <v>378.381302314994</v>
+        <v>108.21978191298</v>
       </c>
       <c r="S23">
-        <v>0.0280620988175547</v>
+        <v>0.009821634228494388</v>
       </c>
       <c r="T23">
-        <v>0.02806209881755471</v>
+        <v>0.009821634228494386</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="H24">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="I24">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="J24">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>13.96891333333333</v>
+        <v>14.06185033333333</v>
       </c>
       <c r="N24">
-        <v>41.90674000000001</v>
+        <v>42.185551</v>
       </c>
       <c r="O24">
-        <v>0.08255561981272232</v>
+        <v>0.06981179492311297</v>
       </c>
       <c r="P24">
-        <v>0.0825556198127223</v>
+        <v>0.06981179492311297</v>
       </c>
       <c r="Q24">
-        <v>48.42215315106445</v>
+        <v>13.84946952046556</v>
       </c>
       <c r="R24">
-        <v>435.7993783595801</v>
+        <v>124.64522568419</v>
       </c>
       <c r="S24">
-        <v>0.03232042689565751</v>
+        <v>0.01131234782918569</v>
       </c>
       <c r="T24">
-        <v>0.03232042689565751</v>
+        <v>0.01131234782918569</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="H25">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="I25">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="J25">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.880702999999999</v>
+        <v>22.576406</v>
       </c>
       <c r="N25">
-        <v>26.642109</v>
+        <v>67.729218</v>
       </c>
       <c r="O25">
-        <v>0.05248453641617331</v>
+        <v>0.112083359473456</v>
       </c>
       <c r="P25">
-        <v>0.05248453641617332</v>
+        <v>0.112083359473456</v>
       </c>
       <c r="Q25">
-        <v>30.78426721490033</v>
+        <v>22.23542701471334</v>
       </c>
       <c r="R25">
-        <v>277.058404934103</v>
+        <v>200.11884313242</v>
       </c>
       <c r="S25">
-        <v>0.02054763353772301</v>
+        <v>0.0181620591423529</v>
       </c>
       <c r="T25">
-        <v>0.02054763353772302</v>
+        <v>0.0181620591423529</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="H26">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="I26">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="J26">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.426599333333333</v>
+        <v>16.720195</v>
       </c>
       <c r="N26">
-        <v>16.279798</v>
+        <v>50.160585</v>
       </c>
       <c r="O26">
-        <v>0.0320709464471805</v>
+        <v>0.08300947576205361</v>
       </c>
       <c r="P26">
-        <v>0.0320709464471805</v>
+        <v>0.0830094757620536</v>
       </c>
       <c r="Q26">
-        <v>0.1547539509215556</v>
+        <v>0.050846112995</v>
       </c>
       <c r="R26">
-        <v>1.392785558294</v>
+        <v>0.457615016955</v>
       </c>
       <c r="S26">
-        <v>0.0001032939147082177</v>
+        <v>4.153147635810556E-05</v>
       </c>
       <c r="T26">
-        <v>0.0001032939147082177</v>
+        <v>4.153147635810553E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="H27">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="I27">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="J27">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>344.735191</v>
       </c>
       <c r="O27">
-        <v>0.6791229135041811</v>
+        <v>0.5704934956727761</v>
       </c>
       <c r="P27">
-        <v>0.6791229135041811</v>
+        <v>0.5704934956727761</v>
       </c>
       <c r="Q27">
-        <v>3.277014421735889</v>
+        <v>0.3494465719436666</v>
       </c>
       <c r="R27">
-        <v>29.493129795623</v>
+        <v>3.145019147493</v>
       </c>
       <c r="S27">
-        <v>0.002187315064724706</v>
+        <v>0.0002854305115226128</v>
       </c>
       <c r="T27">
-        <v>0.002187315064724706</v>
+        <v>0.0002854305115226127</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="H28">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="I28">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="J28">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>13.88967966666667</v>
+        <v>20.946141</v>
       </c>
       <c r="N28">
-        <v>41.669039</v>
+        <v>62.83842300000001</v>
       </c>
       <c r="O28">
-        <v>0.08208735257491988</v>
+        <v>0.103989707276025</v>
       </c>
       <c r="P28">
-        <v>0.08208735257491988</v>
+        <v>0.103989707276025</v>
       </c>
       <c r="Q28">
-        <v>0.3961012548407777</v>
+        <v>0.063697214781</v>
       </c>
       <c r="R28">
-        <v>3.564911293567</v>
+        <v>0.573274933029</v>
       </c>
       <c r="S28">
-        <v>0.0002643864598589857</v>
+        <v>5.202835013198383E-05</v>
       </c>
       <c r="T28">
-        <v>0.0002643864598589858</v>
+        <v>5.202835013198382E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="H29">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="I29">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="J29">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>12.12846066666667</v>
+        <v>12.208814</v>
       </c>
       <c r="N29">
-        <v>36.385382</v>
+        <v>36.626442</v>
       </c>
       <c r="O29">
-        <v>0.07167863124482289</v>
+        <v>0.06061216689257635</v>
       </c>
       <c r="P29">
-        <v>0.07167863124482289</v>
+        <v>0.06061216689257635</v>
       </c>
       <c r="Q29">
-        <v>0.3458753984717778</v>
+        <v>0.037127003374</v>
       </c>
       <c r="R29">
-        <v>3.112878586246</v>
+        <v>0.334143030366</v>
       </c>
       <c r="S29">
-        <v>0.0002308621117371308</v>
+        <v>3.032560744665406E-05</v>
       </c>
       <c r="T29">
-        <v>0.0002308621117371309</v>
+        <v>3.032560744665405E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="H30">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="I30">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="J30">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>13.96891333333333</v>
+        <v>14.06185033333333</v>
       </c>
       <c r="N30">
-        <v>41.90674000000001</v>
+        <v>42.185551</v>
       </c>
       <c r="O30">
-        <v>0.08255561981272232</v>
+        <v>0.06981179492311297</v>
       </c>
       <c r="P30">
-        <v>0.0825556198127223</v>
+        <v>0.06981179492311297</v>
       </c>
       <c r="Q30">
-        <v>0.3983608141355556</v>
+        <v>0.04276208686366666</v>
       </c>
       <c r="R30">
-        <v>3.585247327220001</v>
+        <v>0.384858781773</v>
       </c>
       <c r="S30">
-        <v>0.0002658946522100247</v>
+        <v>3.492838478678341E-05</v>
       </c>
       <c r="T30">
-        <v>0.0002658946522100247</v>
+        <v>3.49283847867834E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,7 +2332,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="H31">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="I31">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="J31">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.880702999999999</v>
+        <v>22.576406</v>
       </c>
       <c r="N31">
-        <v>26.642109</v>
+        <v>67.729218</v>
       </c>
       <c r="O31">
-        <v>0.05248453641617331</v>
+        <v>0.112083359473456</v>
       </c>
       <c r="P31">
-        <v>0.05248453641617332</v>
+        <v>0.112083359473456</v>
       </c>
       <c r="Q31">
-        <v>0.2532569279196666</v>
+        <v>0.06865485064600001</v>
       </c>
       <c r="R31">
-        <v>2.279312351277</v>
+        <v>0.617893655814</v>
       </c>
       <c r="S31">
-        <v>0.0001690418845917522</v>
+        <v>5.607778330575644E-05</v>
       </c>
       <c r="T31">
-        <v>0.0001690418845917522</v>
+        <v>5.607778330575642E-05</v>
       </c>
     </row>
   </sheetData>
